--- a/artfynd/A 11213-2022.xlsx
+++ b/artfynd/A 11213-2022.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>99564944</v>
+        <v>99564937</v>
       </c>
       <c r="B3" t="n">
-        <v>96334</v>
+        <v>89392</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>595280.9125479215</v>
+        <v>595718.462900955</v>
       </c>
       <c r="R3" t="n">
-        <v>6912292.529634375</v>
+        <v>6912331.040771263</v>
       </c>
       <c r="S3" t="n">
         <v>48</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>99564937</v>
+        <v>99564945</v>
       </c>
       <c r="B4" t="n">
-        <v>89392</v>
+        <v>56395</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,34 +920,39 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Brännåsen, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>595718.462900955</v>
+        <v>595778.4600258654</v>
       </c>
       <c r="R4" t="n">
-        <v>6912331.040771263</v>
+        <v>6912463.877241801</v>
       </c>
       <c r="S4" t="n">
         <v>48</v>
@@ -1016,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>99564923</v>
+        <v>99564934</v>
       </c>
       <c r="B5" t="n">
-        <v>89376</v>
+        <v>56395</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,38 +1033,43 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4660</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rävticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Inocutis rheades</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Pers.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Brännåsen, Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>595468.7437919002</v>
+        <v>595782.0215915864</v>
       </c>
       <c r="R5" t="n">
-        <v>6912221.153764501</v>
+        <v>6912420.737332884</v>
       </c>
       <c r="S5" t="n">
         <v>48</v>
@@ -1128,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99564927</v>
+        <v>99564938</v>
       </c>
       <c r="B6" t="n">
-        <v>78503</v>
+        <v>78569</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1150,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>595451.5082853716</v>
+        <v>595794.0918679656</v>
       </c>
       <c r="R6" t="n">
-        <v>6912384.801054608</v>
+        <v>6912422.012381156</v>
       </c>
       <c r="S6" t="n">
         <v>48</v>
@@ -1240,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99564931</v>
+        <v>99564941</v>
       </c>
       <c r="B7" t="n">
-        <v>78503</v>
+        <v>89673</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1262,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6456</v>
+        <v>658</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1290,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>595438.9989911841</v>
+        <v>595711.9895855145</v>
       </c>
       <c r="R7" t="n">
-        <v>6912382.584794725</v>
+        <v>6912345.735149743</v>
       </c>
       <c r="S7" t="n">
         <v>48</v>
@@ -1352,10 +1362,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>99564925</v>
+        <v>99564935</v>
       </c>
       <c r="B8" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1374,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1402,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>595476.4437787337</v>
+        <v>595713.3854063898</v>
       </c>
       <c r="R8" t="n">
-        <v>6912245.08772236</v>
+        <v>6912345.775026423</v>
       </c>
       <c r="S8" t="n">
         <v>48</v>
@@ -1464,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>99564928</v>
+        <v>99564944</v>
       </c>
       <c r="B9" t="n">
-        <v>78569</v>
+        <v>96334</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1486,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1514,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>595582.6011734826</v>
+        <v>595280.9125479215</v>
       </c>
       <c r="R9" t="n">
-        <v>6912474.092091525</v>
+        <v>6912292.529634375</v>
       </c>
       <c r="S9" t="n">
         <v>48</v>
@@ -1576,10 +1586,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>99564932</v>
+        <v>99564923</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>89376</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1598,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>4660</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rävticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Inocutis rheades</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Pers.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1626,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>595581.4055642756</v>
+        <v>595468.7437919002</v>
       </c>
       <c r="R10" t="n">
-        <v>6912483.357140777</v>
+        <v>6912221.153764501</v>
       </c>
       <c r="S10" t="n">
         <v>48</v>
@@ -1688,10 +1698,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>99564930</v>
+        <v>99564927</v>
       </c>
       <c r="B11" t="n">
-        <v>78569</v>
+        <v>78503</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,25 +1710,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>595546.9585193637</v>
+        <v>595451.5082853716</v>
       </c>
       <c r="R11" t="n">
-        <v>6912287.086805391</v>
+        <v>6912384.801054608</v>
       </c>
       <c r="S11" t="n">
         <v>48</v>
@@ -1800,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>99564943</v>
+        <v>99564931</v>
       </c>
       <c r="B12" t="n">
-        <v>77259</v>
+        <v>78503</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,25 +1822,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>228912</v>
+        <v>6456</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1850,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>595659.09430371</v>
+        <v>595438.9989911841</v>
       </c>
       <c r="R12" t="n">
-        <v>6912339.109678851</v>
+        <v>6912382.584794725</v>
       </c>
       <c r="S12" t="n">
         <v>48</v>
@@ -1912,10 +1922,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>99564940</v>
+        <v>99564925</v>
       </c>
       <c r="B13" t="n">
-        <v>78503</v>
+        <v>89392</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1934,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6456</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1962,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>595470.5255192126</v>
+        <v>595476.4437787337</v>
       </c>
       <c r="R13" t="n">
-        <v>6912223.994488954</v>
+        <v>6912245.08772236</v>
       </c>
       <c r="S13" t="n">
         <v>48</v>
@@ -2024,10 +2034,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>99564945</v>
+        <v>99564928</v>
       </c>
       <c r="B14" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,39 +2050,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Brännåsen, Mpd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>595778.4600258654</v>
+        <v>595582.6011734826</v>
       </c>
       <c r="R14" t="n">
-        <v>6912463.877241801</v>
+        <v>6912474.092091525</v>
       </c>
       <c r="S14" t="n">
         <v>48</v>
@@ -2141,10 +2146,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>99564936</v>
+        <v>99564932</v>
       </c>
       <c r="B15" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2157,21 +2162,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2181,10 +2186,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>595471.9213900227</v>
+        <v>595581.4055642756</v>
       </c>
       <c r="R15" t="n">
-        <v>6912224.034264626</v>
+        <v>6912483.357140777</v>
       </c>
       <c r="S15" t="n">
         <v>48</v>
@@ -2253,10 +2258,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>99564934</v>
+        <v>99564930</v>
       </c>
       <c r="B16" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2269,39 +2274,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Brännåsen, Mpd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>595782.0215915864</v>
+        <v>595546.9585193637</v>
       </c>
       <c r="R16" t="n">
-        <v>6912420.737332884</v>
+        <v>6912287.086805391</v>
       </c>
       <c r="S16" t="n">
         <v>48</v>
@@ -2370,10 +2370,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>99564924</v>
+        <v>99564943</v>
       </c>
       <c r="B17" t="n">
-        <v>78527</v>
+        <v>77259</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2382,25 +2382,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>229497</v>
+        <v>228912</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2410,10 +2410,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>595505.2006268308</v>
+        <v>595659.09430371</v>
       </c>
       <c r="R17" t="n">
-        <v>6912265.436834001</v>
+        <v>6912339.109678851</v>
       </c>
       <c r="S17" t="n">
         <v>48</v>
@@ -2482,10 +2482,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>99564926</v>
+        <v>99564940</v>
       </c>
       <c r="B18" t="n">
-        <v>78569</v>
+        <v>78503</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2494,25 +2494,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>595657.1934100311</v>
+        <v>595470.5255192126</v>
       </c>
       <c r="R18" t="n">
-        <v>6912340.450337817</v>
+        <v>6912223.994488954</v>
       </c>
       <c r="S18" t="n">
         <v>48</v>
@@ -2594,10 +2594,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>99564933</v>
+        <v>99564936</v>
       </c>
       <c r="B19" t="n">
-        <v>89356</v>
+        <v>78569</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2606,25 +2606,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2634,10 +2634,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>595465.3450126103</v>
+        <v>595471.9213900227</v>
       </c>
       <c r="R19" t="n">
-        <v>6912258.721109796</v>
+        <v>6912224.034264626</v>
       </c>
       <c r="S19" t="n">
         <v>48</v>
@@ -2706,10 +2706,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>99564942</v>
+        <v>99564924</v>
       </c>
       <c r="B20" t="n">
-        <v>78602</v>
+        <v>78527</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2722,21 +2722,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6463</v>
+        <v>229497</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>595451.5744691773</v>
+        <v>595505.2006268308</v>
       </c>
       <c r="R20" t="n">
-        <v>6912382.478090141</v>
+        <v>6912265.436834001</v>
       </c>
       <c r="S20" t="n">
         <v>48</v>
@@ -2818,10 +2818,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>99564929</v>
+        <v>99564926</v>
       </c>
       <c r="B21" t="n">
-        <v>78596</v>
+        <v>78569</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2830,25 +2830,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2858,10 +2858,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>595509.0950829939</v>
+        <v>595657.1934100311</v>
       </c>
       <c r="R21" t="n">
-        <v>6912259.503016504</v>
+        <v>6912340.450337817</v>
       </c>
       <c r="S21" t="n">
         <v>48</v>
@@ -2930,10 +2930,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>99564938</v>
+        <v>99564933</v>
       </c>
       <c r="B22" t="n">
-        <v>78569</v>
+        <v>89356</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2942,25 +2942,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2970,10 +2970,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>595794.0918679656</v>
+        <v>595465.3450126103</v>
       </c>
       <c r="R22" t="n">
-        <v>6912422.012381156</v>
+        <v>6912258.721109796</v>
       </c>
       <c r="S22" t="n">
         <v>48</v>
@@ -3042,10 +3042,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>99564939</v>
+        <v>99564942</v>
       </c>
       <c r="B23" t="n">
-        <v>89392</v>
+        <v>78602</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3054,25 +3054,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>6463</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3082,10 +3082,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>595420.0288524196</v>
+        <v>595451.5744691773</v>
       </c>
       <c r="R23" t="n">
-        <v>6912378.324677907</v>
+        <v>6912382.478090141</v>
       </c>
       <c r="S23" t="n">
         <v>48</v>
@@ -3154,10 +3154,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>99564941</v>
+        <v>99564929</v>
       </c>
       <c r="B24" t="n">
-        <v>89673</v>
+        <v>78596</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3166,25 +3166,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>658</v>
+        <v>6462</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>595711.9895855145</v>
+        <v>595509.0950829939</v>
       </c>
       <c r="R24" t="n">
-        <v>6912345.735149743</v>
+        <v>6912259.503016504</v>
       </c>
       <c r="S24" t="n">
         <v>48</v>
@@ -3266,10 +3266,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>99564935</v>
+        <v>99564939</v>
       </c>
       <c r="B25" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3278,25 +3278,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3306,10 +3306,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>595713.3854063898</v>
+        <v>595420.0288524196</v>
       </c>
       <c r="R25" t="n">
-        <v>6912345.775026423</v>
+        <v>6912378.324677907</v>
       </c>
       <c r="S25" t="n">
         <v>48</v>

--- a/artfynd/A 11213-2022.xlsx
+++ b/artfynd/A 11213-2022.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>99564937</v>
+        <v>99564944</v>
       </c>
       <c r="B3" t="n">
-        <v>89392</v>
+        <v>96334</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>595718.462900955</v>
+        <v>595280.9125479215</v>
       </c>
       <c r="R3" t="n">
-        <v>6912331.040771263</v>
+        <v>6912292.529634375</v>
       </c>
       <c r="S3" t="n">
         <v>48</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>99564945</v>
+        <v>99564937</v>
       </c>
       <c r="B4" t="n">
-        <v>56395</v>
+        <v>89392</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,39 +920,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Brännåsen, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>595778.4600258654</v>
+        <v>595718.462900955</v>
       </c>
       <c r="R4" t="n">
-        <v>6912463.877241801</v>
+        <v>6912331.040771263</v>
       </c>
       <c r="S4" t="n">
         <v>48</v>
@@ -1021,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>99564934</v>
+        <v>99564923</v>
       </c>
       <c r="B5" t="n">
-        <v>56395</v>
+        <v>89376</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1033,43 +1028,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>4660</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rävticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Inocutis rheades</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Brännåsen, Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>595782.0215915864</v>
+        <v>595468.7437919002</v>
       </c>
       <c r="R5" t="n">
-        <v>6912420.737332884</v>
+        <v>6912221.153764501</v>
       </c>
       <c r="S5" t="n">
         <v>48</v>
@@ -1138,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99564938</v>
+        <v>99564927</v>
       </c>
       <c r="B6" t="n">
-        <v>78569</v>
+        <v>78503</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>595794.0918679656</v>
+        <v>595451.5082853716</v>
       </c>
       <c r="R6" t="n">
-        <v>6912422.012381156</v>
+        <v>6912384.801054608</v>
       </c>
       <c r="S6" t="n">
         <v>48</v>
@@ -1250,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99564941</v>
+        <v>99564931</v>
       </c>
       <c r="B7" t="n">
-        <v>89673</v>
+        <v>78503</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1262,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>658</v>
+        <v>6456</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1290,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>595711.9895855145</v>
+        <v>595438.9989911841</v>
       </c>
       <c r="R7" t="n">
-        <v>6912345.735149743</v>
+        <v>6912382.584794725</v>
       </c>
       <c r="S7" t="n">
         <v>48</v>
@@ -1362,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>99564935</v>
+        <v>99564925</v>
       </c>
       <c r="B8" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1374,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1402,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>595713.3854063898</v>
+        <v>595476.4437787337</v>
       </c>
       <c r="R8" t="n">
-        <v>6912345.775026423</v>
+        <v>6912245.08772236</v>
       </c>
       <c r="S8" t="n">
         <v>48</v>
@@ -1474,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>99564944</v>
+        <v>99564928</v>
       </c>
       <c r="B9" t="n">
-        <v>96334</v>
+        <v>78569</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1514,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>595280.9125479215</v>
+        <v>595582.6011734826</v>
       </c>
       <c r="R9" t="n">
-        <v>6912292.529634375</v>
+        <v>6912474.092091525</v>
       </c>
       <c r="S9" t="n">
         <v>48</v>
@@ -1586,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>99564923</v>
+        <v>99564932</v>
       </c>
       <c r="B10" t="n">
-        <v>89376</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1598,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4660</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rävticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Inocutis rheades</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Pers.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1626,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>595468.7437919002</v>
+        <v>595581.4055642756</v>
       </c>
       <c r="R10" t="n">
-        <v>6912221.153764501</v>
+        <v>6912483.357140777</v>
       </c>
       <c r="S10" t="n">
         <v>48</v>
@@ -1698,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>99564927</v>
+        <v>99564930</v>
       </c>
       <c r="B11" t="n">
-        <v>78503</v>
+        <v>78569</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1710,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1738,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>595451.5082853716</v>
+        <v>595546.9585193637</v>
       </c>
       <c r="R11" t="n">
-        <v>6912384.801054608</v>
+        <v>6912287.086805391</v>
       </c>
       <c r="S11" t="n">
         <v>48</v>
@@ -1810,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>99564931</v>
+        <v>99564943</v>
       </c>
       <c r="B12" t="n">
-        <v>78503</v>
+        <v>77259</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1822,25 +1812,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6456</v>
+        <v>228912</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1850,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>595438.9989911841</v>
+        <v>595659.09430371</v>
       </c>
       <c r="R12" t="n">
-        <v>6912382.584794725</v>
+        <v>6912339.109678851</v>
       </c>
       <c r="S12" t="n">
         <v>48</v>
@@ -1922,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>99564925</v>
+        <v>99564940</v>
       </c>
       <c r="B13" t="n">
-        <v>89392</v>
+        <v>78503</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1934,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>6456</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1962,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>595476.4437787337</v>
+        <v>595470.5255192126</v>
       </c>
       <c r="R13" t="n">
-        <v>6912245.08772236</v>
+        <v>6912223.994488954</v>
       </c>
       <c r="S13" t="n">
         <v>48</v>
@@ -2034,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>99564928</v>
+        <v>99564945</v>
       </c>
       <c r="B14" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2050,34 +2040,39 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Brännåsen, Mpd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>595582.6011734826</v>
+        <v>595778.4600258654</v>
       </c>
       <c r="R14" t="n">
-        <v>6912474.092091525</v>
+        <v>6912463.877241801</v>
       </c>
       <c r="S14" t="n">
         <v>48</v>
@@ -2146,10 +2141,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>99564932</v>
+        <v>99564936</v>
       </c>
       <c r="B15" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2162,21 +2157,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2186,10 +2181,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>595581.4055642756</v>
+        <v>595471.9213900227</v>
       </c>
       <c r="R15" t="n">
-        <v>6912483.357140777</v>
+        <v>6912224.034264626</v>
       </c>
       <c r="S15" t="n">
         <v>48</v>
@@ -2258,10 +2253,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>99564930</v>
+        <v>99564934</v>
       </c>
       <c r="B16" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2274,34 +2269,39 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Brännåsen, Mpd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>595546.9585193637</v>
+        <v>595782.0215915864</v>
       </c>
       <c r="R16" t="n">
-        <v>6912287.086805391</v>
+        <v>6912420.737332884</v>
       </c>
       <c r="S16" t="n">
         <v>48</v>
@@ -2370,10 +2370,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>99564943</v>
+        <v>99564924</v>
       </c>
       <c r="B17" t="n">
-        <v>77259</v>
+        <v>78527</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2382,25 +2382,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>228912</v>
+        <v>229497</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2410,10 +2410,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>595659.09430371</v>
+        <v>595505.2006268308</v>
       </c>
       <c r="R17" t="n">
-        <v>6912339.109678851</v>
+        <v>6912265.436834001</v>
       </c>
       <c r="S17" t="n">
         <v>48</v>
@@ -2482,10 +2482,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>99564940</v>
+        <v>99564926</v>
       </c>
       <c r="B18" t="n">
-        <v>78503</v>
+        <v>78569</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2494,25 +2494,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>595470.5255192126</v>
+        <v>595657.1934100311</v>
       </c>
       <c r="R18" t="n">
-        <v>6912223.994488954</v>
+        <v>6912340.450337817</v>
       </c>
       <c r="S18" t="n">
         <v>48</v>
@@ -2594,10 +2594,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>99564936</v>
+        <v>99564933</v>
       </c>
       <c r="B19" t="n">
-        <v>78569</v>
+        <v>89356</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2606,25 +2606,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2634,10 +2634,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>595471.9213900227</v>
+        <v>595465.3450126103</v>
       </c>
       <c r="R19" t="n">
-        <v>6912224.034264626</v>
+        <v>6912258.721109796</v>
       </c>
       <c r="S19" t="n">
         <v>48</v>
@@ -2706,10 +2706,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>99564924</v>
+        <v>99564942</v>
       </c>
       <c r="B20" t="n">
-        <v>78527</v>
+        <v>78602</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2722,21 +2722,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>229497</v>
+        <v>6463</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>595505.2006268308</v>
+        <v>595451.5744691773</v>
       </c>
       <c r="R20" t="n">
-        <v>6912265.436834001</v>
+        <v>6912382.478090141</v>
       </c>
       <c r="S20" t="n">
         <v>48</v>
@@ -2818,10 +2818,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>99564926</v>
+        <v>99564929</v>
       </c>
       <c r="B21" t="n">
-        <v>78569</v>
+        <v>78596</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2830,25 +2830,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2858,10 +2858,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>595657.1934100311</v>
+        <v>595509.0950829939</v>
       </c>
       <c r="R21" t="n">
-        <v>6912340.450337817</v>
+        <v>6912259.503016504</v>
       </c>
       <c r="S21" t="n">
         <v>48</v>
@@ -2930,10 +2930,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>99564933</v>
+        <v>99564938</v>
       </c>
       <c r="B22" t="n">
-        <v>89356</v>
+        <v>78569</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2942,25 +2942,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2970,10 +2970,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>595465.3450126103</v>
+        <v>595794.0918679656</v>
       </c>
       <c r="R22" t="n">
-        <v>6912258.721109796</v>
+        <v>6912422.012381156</v>
       </c>
       <c r="S22" t="n">
         <v>48</v>
@@ -3042,10 +3042,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>99564942</v>
+        <v>99564939</v>
       </c>
       <c r="B23" t="n">
-        <v>78602</v>
+        <v>89392</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3054,25 +3054,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6463</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3082,10 +3082,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>595451.5744691773</v>
+        <v>595420.0288524196</v>
       </c>
       <c r="R23" t="n">
-        <v>6912382.478090141</v>
+        <v>6912378.324677907</v>
       </c>
       <c r="S23" t="n">
         <v>48</v>
@@ -3154,10 +3154,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>99564929</v>
+        <v>99564941</v>
       </c>
       <c r="B24" t="n">
-        <v>78596</v>
+        <v>89673</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3166,25 +3166,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6462</v>
+        <v>658</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>595509.0950829939</v>
+        <v>595711.9895855145</v>
       </c>
       <c r="R24" t="n">
-        <v>6912259.503016504</v>
+        <v>6912345.735149743</v>
       </c>
       <c r="S24" t="n">
         <v>48</v>
@@ -3266,10 +3266,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>99564939</v>
+        <v>99564935</v>
       </c>
       <c r="B25" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3278,25 +3278,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3306,10 +3306,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>595420.0288524196</v>
+        <v>595713.3854063898</v>
       </c>
       <c r="R25" t="n">
-        <v>6912378.324677907</v>
+        <v>6912345.775026423</v>
       </c>
       <c r="S25" t="n">
         <v>48</v>
